--- a/salvo_excel/tabela_descritiva.xlsx
+++ b/salvo_excel/tabela_descritiva.xlsx
@@ -1,21 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOVO\Documents\TCC\novocaged\salvo_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A48CE5-AD93-4DAB-8D56-85D8449C2EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="10956" yWindow="0" windowWidth="10968" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+  <si>
+    <t>Variavel</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Frequencia</t>
+  </si>
+  <si>
+    <t>Proporcao</t>
+  </si>
+  <si>
+    <t>porto</t>
+  </si>
+  <si>
+    <t>Privado</t>
+  </si>
+  <si>
+    <t>Público</t>
+  </si>
+  <si>
+    <t>genero</t>
+  </si>
+  <si>
+    <t>Homem</t>
+  </si>
+  <si>
+    <t>Mulher</t>
+  </si>
+  <si>
+    <t>cor_raca</t>
+  </si>
+  <si>
+    <t>Amarela</t>
+  </si>
+  <si>
+    <t>Branca</t>
+  </si>
+  <si>
+    <t>Indígena</t>
+  </si>
+  <si>
+    <t>N/I</t>
+  </si>
+  <si>
+    <t>Não informada</t>
+  </si>
+  <si>
+    <t>Parda</t>
+  </si>
+  <si>
+    <t>Preta</t>
+  </si>
+  <si>
+    <t>instrucao</t>
+  </si>
+  <si>
+    <t>Fundamental Completo</t>
+  </si>
+  <si>
+    <t>Fundamental Incompleto</t>
+  </si>
+  <si>
+    <t>Médio Completo</t>
+  </si>
+  <si>
+    <t>Pós-Graduação Completa</t>
+  </si>
+  <si>
+    <t>Superior Completo</t>
+  </si>
+  <si>
+    <t>faixa_salarial</t>
+  </si>
+  <si>
+    <t>&lt;1SM</t>
+  </si>
+  <si>
+    <t>&gt;10SM</t>
+  </si>
+  <si>
+    <t>1-3SM</t>
+  </si>
+  <si>
+    <t>3-5SM</t>
+  </si>
+  <si>
+    <t>5-10SM</t>
+  </si>
+  <si>
+    <t>tipo_trabalhador</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Chefia</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +173,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +225,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +259,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +294,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,45 +470,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C25:D29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Variavel</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Frequencia</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Proporcao</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>porto</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Privado</t>
-        </is>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2">
         <v>6097</v>
@@ -397,16 +507,12 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>porto</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Público</t>
-        </is>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
         <v>3882</v>
@@ -415,124 +521,68 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>genero</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Homem</t>
-        </is>
-      </c>
-      <c r="C4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>8622</v>
       </c>
-      <c r="D4">
-        <v>86.40000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>genero</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mulher</t>
-        </is>
-      </c>
-      <c r="C5">
+      <c r="D5">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>1357</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>13.6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>cor_raca</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Amarela</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>56</v>
-      </c>
-      <c r="D6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>cor_raca</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="C7">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>6632</v>
+      </c>
+      <c r="D8">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
         <v>1449</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>14.5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>cor_raca</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Indígena</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>cor_raca</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>N/I</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>cor_raca</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Não informada</t>
-        </is>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
       </c>
       <c r="C10">
         <v>1039</v>
@@ -541,277 +591,246 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>cor_raca</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Parda</t>
-        </is>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>6632</v>
+        <v>771</v>
       </c>
       <c r="D11">
-        <v>66.5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>cor_raca</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Preta</t>
-        </is>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>771</v>
+        <v>56</v>
       </c>
       <c r="D12">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>instrucao</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Fundamental Completo</t>
-        </is>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
       </c>
       <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>7152</v>
+      </c>
+      <c r="D16">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>1214</v>
+      </c>
+      <c r="D17">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
         <v>1041</v>
       </c>
-      <c r="D13">
+      <c r="D18">
         <v>10.4</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>instrucao</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Fundamental Incompleto</t>
-        </is>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
         <v>348</v>
       </c>
-      <c r="D14">
+      <c r="D19">
         <v>3.5</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>instrucao</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Médio Completo</t>
-        </is>
-      </c>
-      <c r="C15">
-        <v>7152</v>
-      </c>
-      <c r="D15">
-        <v>71.7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>instrucao</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>N/I</t>
-        </is>
-      </c>
-      <c r="C16">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="D16">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>206</v>
+      </c>
+      <c r="D20">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21">
         <v>0.2</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>instrucao</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Pós-Graduação Completa</t>
-        </is>
-      </c>
-      <c r="C17">
-        <v>206</v>
-      </c>
-      <c r="D17">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>instrucao</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Superior Completo</t>
-        </is>
-      </c>
-      <c r="C18">
-        <v>1214</v>
-      </c>
-      <c r="D18">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>faixa_salarial</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>&lt;1SM</t>
-        </is>
-      </c>
-      <c r="C19">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>6338</v>
+      </c>
+      <c r="D25">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
         <v>2471</v>
       </c>
-      <c r="D19">
+      <c r="D26">
         <v>24.8</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>faixa_salarial</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>&gt;10SM</t>
-        </is>
-      </c>
-      <c r="C20">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>495</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>419</v>
+      </c>
+      <c r="D28">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29">
         <v>256</v>
       </c>
-      <c r="D20">
+      <c r="D29">
         <v>2.6</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>faixa_salarial</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1-3SM</t>
-        </is>
-      </c>
-      <c r="C21">
-        <v>6338</v>
-      </c>
-      <c r="D21">
-        <v>63.5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>faixa_salarial</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>3-5SM</t>
-        </is>
-      </c>
-      <c r="C22">
-        <v>495</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>faixa_salarial</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>5-10SM</t>
-        </is>
-      </c>
-      <c r="C23">
-        <v>419</v>
-      </c>
-      <c r="D23">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>tipo_trabalhador</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Base</t>
-        </is>
-      </c>
-      <c r="C24">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
         <v>9695</v>
       </c>
-      <c r="D24">
+      <c r="D31">
         <v>97.2</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>tipo_trabalhador</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Chefia</t>
-        </is>
-      </c>
-      <c r="C25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
         <v>284</v>
       </c>
-      <c r="D25">
+      <c r="D32">
         <v>2.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>